--- a/fo1.xlsx
+++ b/fo1.xlsx
@@ -912,12 +912,12 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
